--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nodal-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nodal-Acvr1b.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.089247</v>
+        <v>1.011618333333334</v>
       </c>
       <c r="H2">
-        <v>3.267741</v>
+        <v>3.034855</v>
       </c>
       <c r="I2">
-        <v>0.5826095452486192</v>
+        <v>0.5235149663433657</v>
       </c>
       <c r="J2">
-        <v>0.5826095452486191</v>
+        <v>0.5235149663433657</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.453045666666667</v>
+        <v>1.522526333333333</v>
       </c>
       <c r="N2">
-        <v>13.359137</v>
+        <v>4.567579</v>
       </c>
       <c r="O2">
-        <v>0.4394129038053478</v>
+        <v>0.2115373313282365</v>
       </c>
       <c r="P2">
-        <v>0.4394129038053478</v>
+        <v>0.2115373313282365</v>
       </c>
       <c r="Q2">
-        <v>4.850466633279668</v>
+        <v>1.540215551782778</v>
       </c>
       <c r="R2">
-        <v>43.654199699517</v>
+        <v>13.861939966045</v>
       </c>
       <c r="S2">
-        <v>0.256006152062409</v>
+        <v>0.1107429588906671</v>
       </c>
       <c r="T2">
-        <v>0.2560061520624088</v>
+        <v>0.1107429588906671</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.089247</v>
+        <v>1.011618333333334</v>
       </c>
       <c r="H3">
-        <v>3.267741</v>
+        <v>3.034855</v>
       </c>
       <c r="I3">
-        <v>0.5826095452486192</v>
+        <v>0.5235149663433657</v>
       </c>
       <c r="J3">
-        <v>0.5826095452486191</v>
+        <v>0.5235149663433657</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>9.450299000000001</v>
       </c>
       <c r="O3">
-        <v>0.3108421842981904</v>
+        <v>0.4376697219060474</v>
       </c>
       <c r="P3">
-        <v>0.3108421842981904</v>
+        <v>0.4376697219060474</v>
       </c>
       <c r="Q3">
-        <v>3.431236611617667</v>
+        <v>3.186698574627223</v>
       </c>
       <c r="R3">
-        <v>30.881129504559</v>
+        <v>28.68028717164501</v>
       </c>
       <c r="S3">
-        <v>0.1810996236380562</v>
+        <v>0.2291266497331546</v>
       </c>
       <c r="T3">
-        <v>0.1810996236380562</v>
+        <v>0.2291266497331546</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.089247</v>
+        <v>1.011618333333334</v>
       </c>
       <c r="H4">
-        <v>3.267741</v>
+        <v>3.034855</v>
       </c>
       <c r="I4">
-        <v>0.5826095452486192</v>
+        <v>0.5235149663433657</v>
       </c>
       <c r="J4">
-        <v>0.5826095452486191</v>
+        <v>0.5235149663433657</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.530935</v>
+        <v>2.524809666666667</v>
       </c>
       <c r="N4">
-        <v>7.592805</v>
+        <v>7.574429</v>
       </c>
       <c r="O4">
-        <v>0.2497449118964618</v>
+        <v>0.3507929467657161</v>
       </c>
       <c r="P4">
-        <v>0.2497449118964618</v>
+        <v>0.3507929467657162</v>
       </c>
       <c r="Q4">
-        <v>2.756813355945</v>
+        <v>2.554143746977223</v>
       </c>
       <c r="R4">
-        <v>24.811320203505</v>
+        <v>22.987293722795</v>
       </c>
       <c r="S4">
-        <v>0.1455037695481541</v>
+        <v>0.1836453577195439</v>
       </c>
       <c r="T4">
-        <v>0.1455037695481541</v>
+        <v>0.183645357719544</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.680725</v>
       </c>
       <c r="I5">
-        <v>0.2996585188171233</v>
+        <v>0.2899264353016711</v>
       </c>
       <c r="J5">
-        <v>0.2996585188171233</v>
+        <v>0.2899264353016712</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.453045666666667</v>
+        <v>1.522526333333333</v>
       </c>
       <c r="N5">
-        <v>13.359137</v>
+        <v>4.567579</v>
       </c>
       <c r="O5">
-        <v>0.4394129038053478</v>
+        <v>0.2115373313282365</v>
       </c>
       <c r="P5">
-        <v>0.4394129038053478</v>
+        <v>0.2115373313282365</v>
       </c>
       <c r="Q5">
-        <v>2.494781726036111</v>
+        <v>0.8529826905305555</v>
       </c>
       <c r="R5">
-        <v>22.453035534325</v>
+        <v>7.676844214775</v>
       </c>
       <c r="S5">
-        <v>0.1316738199034416</v>
+        <v>0.06133026440522412</v>
       </c>
       <c r="T5">
-        <v>0.1316738199034416</v>
+        <v>0.06133026440522413</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.680725</v>
       </c>
       <c r="I6">
-        <v>0.2996585188171233</v>
+        <v>0.2899264353016711</v>
       </c>
       <c r="J6">
-        <v>0.2996585188171233</v>
+        <v>0.2899264353016712</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>9.450299000000001</v>
       </c>
       <c r="O6">
-        <v>0.3108421842981904</v>
+        <v>0.4376697219060474</v>
       </c>
       <c r="P6">
-        <v>0.3108421842981904</v>
+        <v>0.4376697219060474</v>
       </c>
       <c r="Q6">
         <v>1.764817087419445</v>
@@ -818,10 +818,10 @@
         <v>15.883353786775</v>
       </c>
       <c r="S6">
-        <v>0.093146508532675</v>
+        <v>0.1268920223116941</v>
       </c>
       <c r="T6">
-        <v>0.09314650853267499</v>
+        <v>0.1268920223116941</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.680725</v>
       </c>
       <c r="I7">
-        <v>0.2996585188171233</v>
+        <v>0.2899264353016711</v>
       </c>
       <c r="J7">
-        <v>0.2996585188171233</v>
+        <v>0.2899264353016712</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.530935</v>
+        <v>2.524809666666667</v>
       </c>
       <c r="N7">
-        <v>7.592805</v>
+        <v>7.574429</v>
       </c>
       <c r="O7">
-        <v>0.2497449118964618</v>
+        <v>0.3507929467657161</v>
       </c>
       <c r="P7">
-        <v>0.2497449118964618</v>
+        <v>0.3507929467657162</v>
       </c>
       <c r="Q7">
-        <v>1.417935242625</v>
+        <v>1.414503575669444</v>
       </c>
       <c r="R7">
-        <v>12.761417183625</v>
+        <v>12.730532181025</v>
       </c>
       <c r="S7">
-        <v>0.07483819038100671</v>
+        <v>0.1017041485847529</v>
       </c>
       <c r="T7">
-        <v>0.07483819038100671</v>
+        <v>0.101704148584753</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2201116666666666</v>
+        <v>0.360498</v>
       </c>
       <c r="H8">
-        <v>0.6603349999999999</v>
+        <v>1.081494</v>
       </c>
       <c r="I8">
-        <v>0.1177319359342576</v>
+        <v>0.1865585983549632</v>
       </c>
       <c r="J8">
-        <v>0.1177319359342576</v>
+        <v>0.1865585983549632</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.453045666666667</v>
+        <v>1.522526333333333</v>
       </c>
       <c r="N8">
-        <v>13.359137</v>
+        <v>4.567579</v>
       </c>
       <c r="O8">
-        <v>0.4394129038053478</v>
+        <v>0.2115373313282365</v>
       </c>
       <c r="P8">
-        <v>0.4394129038053478</v>
+        <v>0.2115373313282365</v>
       </c>
       <c r="Q8">
-        <v>0.9801673034327777</v>
+        <v>0.548867698114</v>
       </c>
       <c r="R8">
-        <v>8.821505730895</v>
+        <v>4.939809283026</v>
       </c>
       <c r="S8">
-        <v>0.0517329318394973</v>
+        <v>0.03946410803234524</v>
       </c>
       <c r="T8">
-        <v>0.0517329318394973</v>
+        <v>0.03946410803234524</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2201116666666666</v>
+        <v>0.360498</v>
       </c>
       <c r="H9">
-        <v>0.6603349999999999</v>
+        <v>1.081494</v>
       </c>
       <c r="I9">
-        <v>0.1177319359342576</v>
+        <v>0.1865585983549632</v>
       </c>
       <c r="J9">
-        <v>0.1177319359342576</v>
+        <v>0.1865585983549632</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>9.450299000000001</v>
       </c>
       <c r="O9">
-        <v>0.3108421842981904</v>
+        <v>0.4376697219060474</v>
       </c>
       <c r="P9">
-        <v>0.3108421842981904</v>
+        <v>0.4376697219060474</v>
       </c>
       <c r="Q9">
-        <v>0.6933736877961111</v>
+        <v>1.135604629634</v>
       </c>
       <c r="R9">
-        <v>6.240363190165</v>
+        <v>10.220441666706</v>
       </c>
       <c r="S9">
-        <v>0.03659605212745925</v>
+        <v>0.08165104986119874</v>
       </c>
       <c r="T9">
-        <v>0.03659605212745924</v>
+        <v>0.08165104986119874</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2201116666666666</v>
+        <v>0.360498</v>
       </c>
       <c r="H10">
-        <v>0.6603349999999999</v>
+        <v>1.081494</v>
       </c>
       <c r="I10">
-        <v>0.1177319359342576</v>
+        <v>0.1865585983549632</v>
       </c>
       <c r="J10">
-        <v>0.1177319359342576</v>
+        <v>0.1865585983549632</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.530935</v>
+        <v>2.524809666666667</v>
       </c>
       <c r="N10">
-        <v>7.592805</v>
+        <v>7.574429</v>
       </c>
       <c r="O10">
-        <v>0.2497449118964618</v>
+        <v>0.3507929467657161</v>
       </c>
       <c r="P10">
-        <v>0.2497449118964618</v>
+        <v>0.3507929467657162</v>
       </c>
       <c r="Q10">
-        <v>0.5570883210749998</v>
+        <v>0.910188835214</v>
       </c>
       <c r="R10">
-        <v>5.013794889674999</v>
+        <v>8.191699516926001</v>
       </c>
       <c r="S10">
-        <v>0.02940295196730105</v>
+        <v>0.06544344046141921</v>
       </c>
       <c r="T10">
-        <v>0.02940295196730105</v>
+        <v>0.06544344046141923</v>
       </c>
     </row>
   </sheetData>
